--- a/sheetFolder/sheet3.xlsx
+++ b/sheetFolder/sheet3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PROGRAMS\Mern_Stack Projects\Internship\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8A0E6BB-2847-4985-A5AD-AF250F3DB2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBDAF927-8FCA-4AB9-9950-E7306E9AE963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E7850BFF-8745-46CB-BAB3-F48C7D724E5C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="102">
   <si>
     <t>EMPID</t>
   </si>
@@ -277,6 +277,66 @@
   </si>
   <si>
     <t>CONTINUING</t>
+  </si>
+  <si>
+    <t>Amit Kumar Singh</t>
+  </si>
+  <si>
+    <t>E57012</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>SUKRIT SUD</t>
+  </si>
+  <si>
+    <t>`0000592766</t>
+  </si>
+  <si>
+    <t>GAURAV SETH</t>
+  </si>
+  <si>
+    <t>`0001495156</t>
+  </si>
+  <si>
+    <t>PROMILA SHRESTHA</t>
+  </si>
+  <si>
+    <t>BHARTI DEVI</t>
+  </si>
+  <si>
+    <t>ROHIT</t>
+  </si>
+  <si>
+    <t>GAURAV</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>BIHAR</t>
+  </si>
+  <si>
+    <t>HISAR</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>MONY ISSUE</t>
+  </si>
+  <si>
+    <t>TOFASHINE</t>
+  </si>
+  <si>
+    <t>HEADON</t>
+  </si>
+  <si>
+    <t>Ravi Pandey</t>
+  </si>
+  <si>
+    <t>E77033</t>
   </si>
 </sst>
 </file>
@@ -393,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -426,6 +486,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010365CA-1E6C-4661-AC2E-55C5379C1C58}">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,13 +822,15 @@
     <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.5703125" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
     <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" customWidth="1"/>
     <col min="26" max="26" width="14" customWidth="1"/>
     <col min="27" max="27" width="14.42578125" customWidth="1"/>
     <col min="30" max="30" width="15.5703125" customWidth="1"/>
     <col min="33" max="33" width="15.5703125" customWidth="1"/>
     <col min="34" max="34" width="23.42578125" customWidth="1"/>
+    <col min="35" max="35" width="13" customWidth="1"/>
     <col min="36" max="36" width="19" customWidth="1"/>
     <col min="37" max="37" width="15.42578125" customWidth="1"/>
     <col min="39" max="39" width="13.28515625" customWidth="1"/>
@@ -1141,7 +1204,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>42</v>
@@ -1260,7 +1323,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>42</v>
@@ -1365,6 +1428,482 @@
         <v>63</v>
       </c>
       <c r="AM5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="7">
+        <v>12345</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>3</v>
+      </c>
+      <c r="R6" s="7">
+        <v>10000</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="9">
+        <v>41</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="W6" s="9">
+        <v>9958272550</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>14567</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>11</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>2020</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ6">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="7">
+        <v>12345</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>3</v>
+      </c>
+      <c r="R7" s="7">
+        <v>10000</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7" s="9">
+        <v>46</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="W7" s="9">
+        <v>9199189658</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>12800</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>43</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>2020</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ7">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="7">
+        <v>12345</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>4</v>
+      </c>
+      <c r="R8" s="7">
+        <v>40000</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="U8" s="8">
+        <v>48</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="W8" s="8">
+        <v>7960708132</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>12800</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>15</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>9</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>2020</v>
+      </c>
+      <c r="AG8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ8">
+        <v>4</v>
+      </c>
+      <c r="AK8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="7">
+        <v>12345</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>4</v>
+      </c>
+      <c r="R9" s="7">
+        <v>40000</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U9" s="8">
+        <v>46</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="W9" s="8">
+        <v>9680515160</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>12800</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>2020</v>
+      </c>
+      <c r="AG9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ9">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM9" t="s">
         <v>64</v>
       </c>
     </row>

--- a/sheetFolder/sheet3.xlsx
+++ b/sheetFolder/sheet3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PROGRAMS\Mern_Stack Projects\Internship\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBDAF927-8FCA-4AB9-9950-E7306E9AE963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{848A6076-72C1-4871-A3F8-B7AD93A524B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E7850BFF-8745-46CB-BAB3-F48C7D724E5C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="103">
   <si>
     <t>EMPID</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>E77033</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -801,42 +804,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010365CA-1E6C-4661-AC2E-55C5379C1C58}">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" customWidth="1"/>
-    <col min="26" max="26" width="14" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" customWidth="1"/>
-    <col min="33" max="33" width="15.5703125" customWidth="1"/>
-    <col min="34" max="34" width="23.42578125" customWidth="1"/>
-    <col min="35" max="35" width="13" customWidth="1"/>
-    <col min="36" max="36" width="19" customWidth="1"/>
-    <col min="37" max="37" width="15.42578125" customWidth="1"/>
-    <col min="39" max="39" width="13.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" customWidth="1"/>
+    <col min="31" max="31" width="15.5703125" customWidth="1"/>
+    <col min="34" max="34" width="15.5703125" customWidth="1"/>
+    <col min="35" max="35" width="23.42578125" customWidth="1"/>
+    <col min="36" max="36" width="13" customWidth="1"/>
+    <col min="37" max="37" width="19" customWidth="1"/>
+    <col min="38" max="38" width="15.42578125" customWidth="1"/>
+    <col min="40" max="40" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,115 +850,118 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -965,116 +971,119 @@
       <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6">
+        <v>1234567898</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="R2" s="7">
         <v>2</v>
       </c>
-      <c r="R2" s="7">
+      <c r="S2" s="7">
         <v>20000</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="8">
+      <c r="V2" s="8">
         <v>50</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="8">
+      <c r="X2" s="8">
         <v>9958268267</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AB2" s="8">
         <v>4</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AC2" s="8">
         <v>14567</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AD2" s="8">
         <v>12</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AE2" s="8">
         <v>5</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AF2" s="8">
         <v>1</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AG2" s="8">
         <v>2021</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>6</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>63</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
@@ -1084,116 +1093,119 @@
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6">
+        <v>1234567898</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="R3" s="7">
         <v>2</v>
       </c>
-      <c r="R3" s="7">
+      <c r="S3" s="7">
         <v>20000</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="U3" s="9">
+      <c r="V3" s="9">
         <v>39</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="W3" s="9">
+      <c r="X3" s="9">
         <v>9312893028</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Z3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AB3" s="8">
         <v>3</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AC3" s="8">
         <v>14567</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AD3" s="8">
         <v>43</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AE3" s="8">
         <v>4</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AF3" s="8">
         <v>9</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AG3" s="8">
         <v>2020</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AH3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AI3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>5</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>63</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1203,116 +1215,119 @@
       <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6">
+        <v>1234567898</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="R4" s="7">
         <v>1</v>
       </c>
-      <c r="R4" s="7">
+      <c r="S4" s="7">
         <v>30000</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="U4" s="9">
+      <c r="V4" s="9">
         <v>29</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="W4" s="9">
+      <c r="X4" s="9">
         <v>9643082290</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AA4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AB4" s="8">
         <v>3</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AC4" s="8">
         <v>14567</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AD4" s="8">
         <v>15</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>9</v>
       </c>
       <c r="AE4" s="8">
         <v>9</v>
       </c>
       <c r="AF4" s="8">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="8">
         <v>2020</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AI4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AI4" s="8" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>4</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AL4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>63</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1322,116 +1337,119 @@
       <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6">
+        <v>1234567898</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="R5" s="7">
         <v>1</v>
       </c>
-      <c r="R5" s="7">
+      <c r="S5" s="7">
         <v>30000</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="U5" s="9">
+      <c r="V5" s="9">
         <v>42</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="W5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="W5" s="9">
+      <c r="X5" s="9">
         <v>7256813427</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Z5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="AA5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AB5" s="8">
         <v>3</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AC5" s="8">
         <v>14567</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AD5" s="8">
         <v>10</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AE5" s="8">
         <v>3</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AF5" s="8">
         <v>11</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AG5" s="8">
         <v>2020</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AH5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AH5" s="8" t="s">
+      <c r="AI5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AI5" s="8" t="s">
+      <c r="AJ5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>3</v>
       </c>
-      <c r="AK5" s="7" t="s">
+      <c r="AL5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>63</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>83</v>
       </c>
@@ -1441,116 +1459,119 @@
       <c r="C6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6">
+        <v>1234567898</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="R6" s="7">
         <v>3</v>
       </c>
-      <c r="R6" s="7">
+      <c r="S6" s="7">
         <v>10000</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="T6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U6" s="9">
+      <c r="V6" s="9">
         <v>41</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="W6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="W6" s="9">
+      <c r="X6" s="9">
         <v>9958272550</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="Y6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Z6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Z6" s="8" t="s">
+      <c r="AA6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AB6" s="8">
         <v>3</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AC6" s="8">
         <v>14567</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AD6" s="8">
         <v>12</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AE6" s="8">
         <v>5</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AF6" s="8">
         <v>11</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AG6" s="8">
         <v>2020</v>
       </c>
-      <c r="AG6" s="8" t="s">
+      <c r="AH6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AH6" s="8" t="s">
+      <c r="AI6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AI6" s="8" t="s">
+      <c r="AJ6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>6</v>
       </c>
-      <c r="AK6" s="7" t="s">
+      <c r="AL6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>63</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>83</v>
       </c>
@@ -1560,116 +1581,119 @@
       <c r="C7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6">
+        <v>1234567898</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="P7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="R7" s="7">
         <v>3</v>
       </c>
-      <c r="R7" s="7">
+      <c r="S7" s="7">
         <v>10000</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="U7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="U7" s="9">
+      <c r="V7" s="9">
         <v>46</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="W7" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="W7" s="9">
+      <c r="X7" s="9">
         <v>9199189658</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="Y7" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Z7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="AA7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AB7" s="8">
         <v>3</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AC7" s="8">
         <v>12800</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AD7" s="8">
         <v>43</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AE7" s="8">
         <v>4</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AF7" s="8">
         <v>12</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AG7" s="8">
         <v>2020</v>
       </c>
-      <c r="AG7" s="8" t="s">
+      <c r="AH7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AH7" s="8" t="s">
+      <c r="AI7" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AI7" s="8" t="s">
+      <c r="AJ7" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>5</v>
       </c>
-      <c r="AK7" s="7" t="s">
+      <c r="AL7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>63</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>83</v>
       </c>
@@ -1679,116 +1703,119 @@
       <c r="C8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6">
+        <v>1234567898</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="N8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="P8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="R8" s="7">
         <v>4</v>
       </c>
-      <c r="R8" s="7">
+      <c r="S8" s="7">
         <v>40000</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="T8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="U8" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="U8" s="8">
+      <c r="V8" s="8">
         <v>48</v>
       </c>
-      <c r="V8" s="8" t="s">
+      <c r="W8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="W8" s="8">
+      <c r="X8" s="8">
         <v>7960708132</v>
       </c>
-      <c r="X8" s="8" t="s">
+      <c r="Y8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Y8" s="8" t="s">
+      <c r="Z8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Z8" s="8" t="s">
+      <c r="AA8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AB8" s="8">
         <v>3</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AC8" s="8">
         <v>12800</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AD8" s="8">
         <v>15</v>
       </c>
-      <c r="AD8" s="8">
+      <c r="AE8" s="8">
         <v>9</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AF8" s="8">
         <v>10</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AG8" s="8">
         <v>2020</v>
       </c>
-      <c r="AG8" s="8" t="s">
+      <c r="AH8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AH8" s="8" t="s">
+      <c r="AI8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AI8" s="8" t="s">
+      <c r="AJ8" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>4</v>
       </c>
-      <c r="AK8" s="7" t="s">
+      <c r="AL8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>63</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>83</v>
       </c>
@@ -1798,112 +1825,115 @@
       <c r="C9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6">
+        <v>1234567898</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="P9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="R9" s="7">
         <v>4</v>
       </c>
-      <c r="R9" s="7">
+      <c r="S9" s="7">
         <v>40000</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="T9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="U9" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="U9" s="8">
+      <c r="V9" s="8">
         <v>46</v>
       </c>
-      <c r="V9" s="8" t="s">
+      <c r="W9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="W9" s="8">
+      <c r="X9" s="8">
         <v>9680515160</v>
       </c>
-      <c r="X9" s="8" t="s">
+      <c r="Y9" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="Y9" s="8" t="s">
+      <c r="Z9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Z9" s="8" t="s">
+      <c r="AA9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AB9" s="8">
         <v>3</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AC9" s="8">
         <v>12800</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AD9" s="8">
         <v>10</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AE9" s="8">
         <v>3</v>
       </c>
-      <c r="AE9" s="8">
+      <c r="AF9" s="8">
         <v>10</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AG9" s="8">
         <v>2020</v>
       </c>
-      <c r="AG9" s="8" t="s">
+      <c r="AH9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AH9" s="8" t="s">
+      <c r="AI9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AI9" s="8" t="s">
+      <c r="AJ9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>3</v>
       </c>
-      <c r="AK9" s="7" t="s">
+      <c r="AL9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>63</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>64</v>
       </c>
     </row>
